--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>LoginTest</t>
   </si>
@@ -69,16 +69,10 @@
     <t>rampal.singh@sts.in</t>
   </si>
   <si>
-    <t>20synergy15</t>
-  </si>
-  <si>
     <t>Unsuccessful</t>
   </si>
   <si>
     <t>singhrampal</t>
-  </si>
-  <si>
-    <t>*#ramface#</t>
   </si>
   <si>
     <t>N</t>
@@ -537,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +539,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +552,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -601,18 +595,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -620,16 +612,14 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -641,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -677,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -691,19 +681,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>4444</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -711,34 +701,32 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>5555</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2" display="Ashish@789"/>
-    <hyperlink ref="C3" r:id="rId3" display="rampal.singh@sts.in"/>
-    <hyperlink ref="D4" r:id="rId4" display="Ashish@789"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6" display="Ashish@789"/>
-    <hyperlink ref="C9" r:id="rId7" display="rampal.singh@sts.in"/>
-    <hyperlink ref="E9" r:id="rId8" display="Ashish@789"/>
+    <hyperlink ref="C3" r:id="rId2" display="rampal.singh@sts.in"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4" display="Ashish@789"/>
+    <hyperlink ref="C9" r:id="rId5" display="rampal.singh@sts.in"/>
+    <hyperlink ref="E9" r:id="rId6" display="Ashish@789"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
